--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.805</v>
+        <v>0.461</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.768</v>
+        <v>18.296</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.182</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.18</v>
+        <v>18.949</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.454</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.195</v>
+        <v>15.185</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>24.75402913499561</v>
+        <v>1.87739831163319</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>32.51708569277588</v>
+        <v>23.71204220646871</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>35.71459616622179</v>
+        <v>30.29001934376522</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24.29727538949884</v>
+        <v>3.342289326024815</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>32.79695942770222</v>
+        <v>21.36584540607841</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>36.2718189220825</v>
+        <v>28.27032194428048</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>30.53702696036799</v>
+        <v>15.10529863140784</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>37.5615774407005</v>
+        <v>29.55189447650532</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>40.46191946828729</v>
+        <v>34.89164991837374</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>34.68411883362168</v>
+        <v>30.75450665790674</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>43.1897091426554</v>
+        <v>37.28992517903578</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>47.22065116684719</v>
+        <v>43.36789250350533</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>30.58700119281996</v>
+        <v>9.304790584282603</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>43.78064349798495</v>
+        <v>29.89879077989532</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>49.09235268321542</v>
+        <v>37.66055091416013</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>24.98073019139169</v>
+        <v>5.148479837836653</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>32.64441660514494</v>
+        <v>30.03443138485249</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.80860995833649</v>
+        <v>38.69110061588499</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>24.45176124164296</v>
+        <v>1.784445800686861</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>32.84316322559526</v>
+        <v>23.22106359653664</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>36.28165437502286</v>
+        <v>32.08696799882843</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>30.60506009983343</v>
+        <v>16.08338498516884</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>37.54050507300126</v>
+        <v>33.24329629215359</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>40.41044605942652</v>
+        <v>40.22402857254021</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>34.68407630185283</v>
+        <v>35.6118474045592</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>43.08365900483293</v>
+        <v>44.92807473002748</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>47.07176471563184</v>
+        <v>52.66311171877508</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>30.64800478954414</v>
+        <v>13.13517850957073</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>43.67094484397437</v>
+        <v>38.21087947024328</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>48.92787447632523</v>
+        <v>47.87925210330179</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>32.12060616409823</v>
+        <v>10.13337877543673</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>39.82109174697551</v>
+        <v>36.86246852798713</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>42.98797295839836</v>
+        <v>47.07141309220967</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>31.93977424929777</v>
+        <v>7.018959187626887</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.37182747289249</v>
+        <v>30.59894980716211</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>43.8149570746619</v>
+        <v>40.98743741658858</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>38.31885181500563</v>
+        <v>24.11675603668967</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>45.29010997287309</v>
+        <v>43.16669978374793</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>48.16329754814785</v>
+        <v>51.45901889551904</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>42.35364057206778</v>
+        <v>49.4478164017881</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>50.80846825460617</v>
+        <v>59.75828207291893</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>54.80773103204403</v>
+        <v>68.13229286113075</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>38.2017009792774</v>
+        <v>23.92243086664684</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>51.27685435381881</v>
+        <v>51.45884305591848</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>56.54178461923724</v>
+        <v>62.92595895706341</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>23.57412560906085</v>
+        <v>5.348126779972752</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>31.48124742780444</v>
+        <v>28.70292364358088</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>34.61114931252275</v>
+        <v>34.65645859925512</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>23.18251721823427</v>
+        <v>7.914055243132585</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>31.84773901616918</v>
+        <v>27.60735861533453</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>35.24760192968592</v>
+        <v>33.83191683961056</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.39271785167204</v>
+        <v>20.28543777873606</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>36.55374510562948</v>
+        <v>36.20119472500546</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>39.38969257065908</v>
+        <v>40.94539264046062</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>33.50546229716857</v>
+        <v>37.31945713432806</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>42.16153486033678</v>
+        <v>44.63371588832051</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>46.11957206274515</v>
+        <v>49.94794819997814</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.25097683294872</v>
+        <v>13.84447087336003</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>42.70534981213098</v>
+        <v>36.3971089025426</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>47.90133924831744</v>
+        <v>43.31606176628211</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>23.7351215212698</v>
+        <v>6.456386722144583</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>31.54091970286186</v>
+        <v>33.06603056973084</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.63686866393986</v>
+        <v>40.91196699167975</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>23.26741407392552</v>
+        <v>4.049983145375982</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>31.82203948059438</v>
+        <v>27.3591205725861</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.18488873475779</v>
+        <v>35.37110247132023</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.38850928044317</v>
+        <v>19.10625547105955</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>36.45852125902587</v>
+        <v>37.92635016963937</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>39.26355502805524</v>
+        <v>44.1508164361144</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>33.4351840396818</v>
+        <v>40.22903543666037</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>41.9829869218117</v>
+        <v>50.36963131997938</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>45.89668731261565</v>
+        <v>57.20171804633063</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.24575793280562</v>
+        <v>15.87949102601449</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>42.5260261071606</v>
+        <v>43.14356689677102</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>47.66616794860733</v>
+        <v>51.75935693262623</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>31.325610262156</v>
+        <v>12.58502452169299</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>39.16276831540056</v>
+        <v>41.28047058528178</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>42.2680596764833</v>
+        <v>50.643411795527</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>31.22889841390005</v>
+        <v>10.20587668854612</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>39.81857523619901</v>
+        <v>35.91227348775822</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>43.19282178810869</v>
+        <v>45.42685925460454</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>37.59148446957384</v>
+        <v>28.17765985480172</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>44.69254112284842</v>
+        <v>49.11456769797684</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>47.50663633430022</v>
+        <v>56.62771403047399</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>41.5911822265821</v>
+        <v>55.1188339459743</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>50.18868029231192</v>
+        <v>66.37826384019078</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>54.12271851132479</v>
+        <v>73.8007987840663</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>37.28340790915313</v>
+        <v>27.65714634462908</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>50.60652868053103</v>
+        <v>57.68984989798973</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>55.76495284694079</v>
+        <v>68.0584860169985</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>23.57412560906085</v>
+        <v>4.40260449085828</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>31.48124742780444</v>
+        <v>27.62703871468016</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>34.61114931252275</v>
+        <v>33.46256003939862</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>23.18251721823427</v>
+        <v>6.765496758789205</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>31.84773901616918</v>
+        <v>26.3083469769512</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>35.24760192968592</v>
+        <v>32.41347667007715</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.39271785167204</v>
+        <v>19.13498094351207</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>36.55374510562948</v>
+        <v>34.92022272281565</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>39.38969257065908</v>
+        <v>39.55394746786784</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>33.50546229716857</v>
+        <v>36.24794309961367</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>42.16153486033678</v>
+        <v>43.48614277473833</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>46.11957206274515</v>
+        <v>48.71250343686751</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.25097683294872</v>
+        <v>12.92808849773</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>42.70534981213098</v>
+        <v>35.31161789520375</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>47.90133924831744</v>
+        <v>42.09005284969773</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>23.7351215212698</v>
+        <v>6.869255887217104</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.54091970286186</v>
+        <v>33.37831892697989</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>34.63686866393986</v>
+        <v>41.09300526175602</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>23.26741407392552</v>
+        <v>4.282766510218057</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>31.82203948059438</v>
+        <v>27.47289389287748</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>35.18488873475779</v>
+        <v>35.34901608324243</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.38850928044317</v>
+        <v>19.39251200075853</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>36.45852125902587</v>
+        <v>38.10853363253958</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>39.26355502805524</v>
+        <v>44.20960864189578</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>33.4351840396818</v>
+        <v>40.54839374927599</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>41.9829869218117</v>
+        <v>50.61319879053352</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>45.89668731261565</v>
+        <v>57.34833705308841</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.24575793280562</v>
+        <v>16.29863411877151</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>42.5260261071606</v>
+        <v>43.4247694273742</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>47.66616794860733</v>
+        <v>51.88110855454885</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>31.325610262156</v>
+        <v>13.07787616988788</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>39.16276831540056</v>
+        <v>41.69305323567586</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>42.2680596764833</v>
+        <v>50.93380016253208</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>31.22889841390005</v>
+        <v>10.5100763742197</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>39.81857523619901</v>
+        <v>36.116648873592</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>43.19282178810869</v>
+        <v>45.50631269937386</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>37.59148446957384</v>
+        <v>28.5336665276084</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>44.69254112284842</v>
+        <v>49.38458324108535</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>47.50663633430022</v>
+        <v>56.78314579974672</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>41.5911822265821</v>
+        <v>55.50153130750036</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>50.18868029231192</v>
+        <v>66.69094347690555</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>54.12271851132479</v>
+        <v>74.02783599579534</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>37.28340790915313</v>
+        <v>28.10341169684489</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>50.60652868053103</v>
+        <v>58.02067821228148</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>55.76495284694079</v>
+        <v>68.24221544957334</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>18.66116680375964</v>
+        <v>-2.549935116496716</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>26.41440292243871</v>
+        <v>18.86886014512984</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.61730263044124</v>
+        <v>25.16421843216562</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>17.88485382208983</v>
+        <v>-1.331016275643531</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>26.37478216919185</v>
+        <v>16.25795997762145</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.85509616124247</v>
+        <v>22.82961403957701</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>23.98775890017208</v>
+        <v>10.03394570846992</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>31.00363582466367</v>
+        <v>24.10180264478587</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>33.90831015994571</v>
+        <v>29.16495175894563</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.26299602347644</v>
+        <v>25.1032174830905</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>36.75014953480871</v>
+        <v>31.47398250939602</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>40.79118753259439</v>
+        <v>37.39411403841991</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>24.32808426512714</v>
+        <v>4.172482801587471</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>37.50936271768086</v>
+        <v>24.28384338114487</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>42.82933755542658</v>
+        <v>31.6528142886301</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>18.93565931946074</v>
+        <v>0.3741331091019866</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>26.5894901935005</v>
+        <v>24.83300667567609</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.75898207728646</v>
+        <v>33.15729333672173</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>18.08970890308405</v>
+        <v>-3.199407820244076</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>26.47129667263507</v>
+        <v>17.78402404277782</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.91514264549998</v>
+        <v>26.27372534157242</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>31.03364329013973</v>
+        <v>27.43610181410121</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>33.90783632992456</v>
+        <v>34.10061536088186</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.31280449670611</v>
+        <v>29.65503429259849</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>36.69399084983872</v>
+        <v>38.80504385181885</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>40.69201042312153</v>
+        <v>46.34240557221302</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>24.43760038422948</v>
+        <v>7.715141021328224</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>37.44806087802351</v>
+        <v>32.28547530461253</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>42.71309418796946</v>
+        <v>41.50947170795023</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>26.38876775842446</v>
+        <v>6.281606236421638</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>34.08170790323681</v>
+        <v>32.61057670919811</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>37.25419051834598</v>
+        <v>42.49324771817088</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>25.90588720104341</v>
+        <v>2.886546519108201</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>34.33069869935436</v>
+        <v>26.04034811974568</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>37.77954011519596</v>
+        <v>36.0599592927699</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>32.15830355944429</v>
+        <v>19.61774945968664</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>39.1229771302768</v>
+        <v>38.29726763866513</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>42.00072304193964</v>
+        <v>46.27826744059134</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>36.31467169939513</v>
+        <v>44.34979730344057</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>44.75410532799863</v>
+        <v>54.5149453846363</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>48.76356784951896</v>
+        <v>62.67663996380329</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>32.31441840381051</v>
+        <v>19.33021161511208</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>45.38089392331201</v>
+        <v>46.39495105594794</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>50.65453516122299</v>
+        <v>57.42281872657865</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>24.38475220277795</v>
+        <v>5.159462665914006</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>32.15146306038862</v>
+        <v>27.65558107250228</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>35.34449674708182</v>
+        <v>34.08329791509109</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>23.88959793082251</v>
+        <v>7.294532954859434</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>32.39380906207383</v>
+        <v>26.04711834414682</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>35.86407053139196</v>
+        <v>32.77958777670773</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>30.11868226075135</v>
+        <v>19.26813407748576</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>37.14690470954979</v>
+        <v>34.34563636984691</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>40.04328796708637</v>
+        <v>39.54864492621116</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>34.26334534145821</v>
+        <v>35.21045070224527</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>42.7736227653917</v>
+        <v>42.06761883493904</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>46.7994732944475</v>
+        <v>48.02961873944011</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>30.16593749219597</v>
+        <v>13.07658186313791</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>43.36637665755084</v>
+        <v>34.4718071539132</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>48.67148245461561</v>
+        <v>42.01801447781592</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>24.62846182564029</v>
+        <v>10.41360087523267</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>32.29579366975443</v>
+        <v>36.03480386346535</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>35.45554851208743</v>
+        <v>44.40119850032851</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>24.06148534525867</v>
+        <v>7.829323136626932</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>32.45738874589036</v>
+        <v>30.06324506406684</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>35.89132477978202</v>
+        <v>38.60801158116505</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>37.14369876475116</v>
+        <v>40.27545872360508</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>40.00971978348524</v>
+        <v>46.98797300287684</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>34.28084292588453</v>
+        <v>42.37116441120925</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>42.68505741139249</v>
+        <v>52.02913854826372</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>46.66808474329255</v>
+        <v>59.56955383314746</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>30.24391546120473</v>
+        <v>19.21190513298408</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>43.2736028883092</v>
+        <v>45.16550543141088</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>48.52398091360409</v>
+        <v>54.45531927382571</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>31.78392315024966</v>
+        <v>14.57794910675109</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>39.48837204716526</v>
+        <v>41.97389385042166</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>42.65116581192714</v>
+        <v>51.91560911995813</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>31.56870609677247</v>
+        <v>12.12882936873168</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>40.00562319795706</v>
+        <v>36.43459600014624</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>43.44457339773177</v>
+        <v>46.52423764665292</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>37.93811892941106</v>
+        <v>29.50597360625226</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>44.91331415655658</v>
+        <v>49.18813056231018</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>47.78289206038351</v>
+        <v>57.23041490762177</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>41.97081566582432</v>
+        <v>55.26990525770008</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>50.43090850995252</v>
+        <v>65.90734309800776</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>54.42541404703864</v>
+        <v>74.0739682698166</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>37.81852715149917</v>
+        <v>29.13996359341369</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>50.9010477311955</v>
+        <v>57.48150391947263</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>56.1600377200441</v>
+        <v>68.59213054696623</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>-39.3433396128359</v>
+        <v>4.456289186210398</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-31.29762830163956</v>
+        <v>27.49525299903026</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>-28.06020885292391</v>
+        <v>33.18121390393881</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-42.21855926540861</v>
+        <v>7.483989914116865</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-33.40532599826015</v>
+        <v>26.96196691376549</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>-29.88826081221372</v>
+        <v>32.91834542753605</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-37.26879092864497</v>
+        <v>19.50475114902561</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>-29.98501173835142</v>
+        <v>35.28431896991285</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>-27.04992370136467</v>
+        <v>39.82443710743449</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-31.53387452546207</v>
+        <v>36.02239000584544</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>-22.72301383951355</v>
+        <v>43.32698139541195</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>-18.63365312996323</v>
+        <v>48.44169816248755</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>-33.90805614546428</v>
+        <v>13.0397198706066</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>-20.22719848480121</v>
+        <v>35.26857369909776</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>-14.85430031529432</v>
+        <v>41.90791432446034</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-38.46508043660717</v>
+        <v>11.31161119626987</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-30.52182611648924</v>
+        <v>37.63178668560762</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>-27.31901223640674</v>
+        <v>44.9857935968939</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-41.3905492438592</v>
+        <v>9.72906235514942</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-32.68906609812716</v>
+        <v>32.84907838308173</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-29.20974406676681</v>
+        <v>40.34149899966624</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-36.51491578941251</v>
+        <v>24.54997587100018</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-29.32309273245108</v>
+        <v>43.25978225634694</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>-26.41954665596892</v>
+        <v>49.06859799556223</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-30.86491507108189</v>
+        <v>45.14435784636115</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-22.16340357096376</v>
+        <v>55.25664853743062</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-18.11891785027411</v>
+        <v>61.74619134299959</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-33.19523320704577</v>
+        <v>21.22762174066053</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-19.69042480672289</v>
+        <v>48.17356957732667</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-14.37439476442146</v>
+        <v>56.24877880122057</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-29.43741459734313</v>
+        <v>16.52958519662129</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-31.93355363912264</v>
+        <v>14.9117687481063</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-23.19638272609048</v>
+        <v>40.19394781462672</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>-19.70962769649395</v>
+        <v>49.14361642084789</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-26.78705522920178</v>
+        <v>32.55165206242675</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-19.56356937181339</v>
+        <v>53.16954056600159</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>-16.6543924306505</v>
+        <v>60.22945192133881</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>-21.21994913583401</v>
+        <v>58.77033447695685</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-12.46788197952691</v>
+        <v>69.88990837865018</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-8.408103686161006</v>
+        <v>76.92700858235693</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>-23.71422778611718</v>
+        <v>31.92693076828287</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-10.16544559379668</v>
+        <v>61.38427838263954</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>-4.837028280424015</v>
+        <v>71.15901354288501</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-42.62139420999514</v>
+        <v>-2.673518351187266</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-34.57222728542556</v>
+        <v>18.63406740541555</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-31.31177652056559</v>
+        <v>24.5444207024341</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-45.56857070053335</v>
+        <v>-1.268290542710648</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-36.75290107874327</v>
+        <v>16.30712415056688</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-33.21172984213847</v>
+        <v>22.53033210114354</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-40.67795400384384</v>
+        <v>10.25332934560053</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-33.39184719765858</v>
+        <v>24.3872502989409</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-30.43616505173582</v>
+        <v>29.12752243149944</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-34.8281882919024</v>
+        <v>26.03294532825748</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-26.01565561246655</v>
+        <v>32.51424220416104</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-21.89951192716739</v>
+        <v>37.8066069429394</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-37.07287151414705</v>
+        <v>4.870927728279351</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-23.38798302551658</v>
+        <v>24.99571894082708</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>-17.98032362036378</v>
+        <v>31.98249140188353</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-41.74376355698499</v>
+        <v>1.03765810855225</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-33.79724555066723</v>
+        <v>25.47914766834076</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-30.57157104319615</v>
+        <v>33.37306032316992</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-44.74043922125229</v>
+        <v>-2.350032535275805</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-36.0366840034367</v>
+        <v>18.73183528246205</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-32.53344701494166</v>
+        <v>26.8258272107822</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-39.9242617328102</v>
+        <v>11.83036686726108</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-32.73026443371507</v>
+        <v>28.7674781020612</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-29.80629308771392</v>
+        <v>35.07291889897347</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-34.15955994118104</v>
+        <v>31.37741977127304</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-25.45646571808584</v>
+        <v>40.6192387760443</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-21.3852841939002</v>
+        <v>47.46273106952162</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>-36.36009099171999</v>
+        <v>9.232489790754872</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>-22.85147345666089</v>
+        <v>33.91821353741554</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>-17.50093264718551</v>
+        <v>42.70641110418704</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-32.61934719947313</v>
+        <v>8.052022076872493</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>-24.6408690399925</v>
+        <v>34.54476767851884</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-21.41126526253647</v>
+        <v>43.86633863599954</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-35.19017478721133</v>
+        <v>4.856362856200263</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-26.45089409788041</v>
+        <v>28.28860185511624</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-22.9418356895436</v>
+        <v>37.79440615672338</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-30.10163882739565</v>
+        <v>21.88501463048371</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-22.87605453519023</v>
+        <v>40.89410733305192</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-19.94779547890868</v>
+        <v>48.41293390757197</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-24.42543271480044</v>
+        <v>47.00478081118459</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-15.67264686642965</v>
+        <v>57.29421846640833</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>-11.58777095640669</v>
+        <v>64.7233336553999</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-26.79648884087486</v>
+        <v>21.72571270650023</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>-13.24434560044759</v>
+        <v>49.11825376912632</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>-7.883901405070993</v>
+        <v>59.56191597436062</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>-13.81428261969227</v>
+        <v>-3.743312345505807</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-6.031408904446195</v>
+        <v>18.62610502094249</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>-2.825408559554532</v>
+        <v>24.99105425871265</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-15.78443672991161</v>
+        <v>-2.051387558510726</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-7.262464414348422</v>
+        <v>16.52770311800613</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-3.778401327583239</v>
+        <v>23.18733056148622</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-10.40083871504529</v>
+        <v>9.65635036613679</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-3.357754469430489</v>
+        <v>24.57452244892865</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-0.44973748154829</v>
+        <v>29.70646537287802</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-5.323238338425398</v>
+        <v>25.69194855437626</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>3.204768147248203</v>
+        <v>32.49669577870027</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>7.249062481504644</v>
+        <v>38.41411120480306</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-8.266653078843198</v>
+        <v>3.733535883498792</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>4.959796049969412</v>
+        <v>24.95340827704485</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>10.28549721213006</v>
+        <v>32.40690118600911</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-13.17078636372135</v>
+        <v>0.1152346656064296</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-5.487156391350787</v>
+        <v>25.61004535524708</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-2.314527755487681</v>
+        <v>33.94402699255306</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-15.19789982671951</v>
+        <v>-3.002403899076043</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-6.784084352139736</v>
+        <v>19.05839533695729</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-3.336449689131022</v>
+        <v>27.56738500024042</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-9.891407186664033</v>
+        <v>11.31111792611007</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-2.937318880053574</v>
+        <v>29.00461642764682</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-0.05975197474695904</v>
+        <v>35.67608590304658</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-4.892129193680177</v>
+        <v>31.37811442313</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>3.529991049360881</v>
+        <v>41.00068286847809</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>7.531331200314085</v>
+        <v>48.51122588556448</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-7.787171968942864</v>
+        <v>8.42422396384697</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>5.268774356057762</v>
+        <v>34.20826414081154</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>10.53960350493477</v>
+        <v>43.44010293703815</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-5.046879502214452</v>
+        <v>5.269731981433548</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>2.672564334277922</v>
+        <v>32.60414040470858</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>5.847632290173181</v>
+        <v>42.53553374795094</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-6.683194936848572</v>
+        <v>2.298350037094291</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>1.770204368480627</v>
+        <v>26.49975739250139</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>5.222240273217892</v>
+        <v>36.57858564370231</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-1.129428925398216</v>
+        <v>19.46455135824467</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>5.859571039336572</v>
+        <v>39.04670206533838</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>8.740179464133931</v>
+        <v>47.06912963330439</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>3.802694170077949</v>
+        <v>45.35281950308715</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>12.27921401186813</v>
+        <v>55.98627855484048</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>16.2912794522513</v>
+        <v>64.13496886737661</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>0.7631490454288681</v>
+        <v>19.35409634907109</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>13.86967364576512</v>
+        <v>47.6063014763907</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>19.14816344964634</v>
+        <v>58.68388285182202</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-12.38538872393253</v>
+        <v>11.68571568626452</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-4.463498323611653</v>
+        <v>35.4784303585998</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-1.301756567491587</v>
+        <v>41.50531001565849</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-14.11295619356067</v>
+        <v>15.20542858106442</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-5.435816060614563</v>
+        <v>35.38499643573975</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-2.001295982379936</v>
+        <v>41.7372484670157</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-8.690792691979773</v>
+        <v>27.92585703703688</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-1.518846560552483</v>
+        <v>44.31138068438147</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>1.347608143407662</v>
+        <v>49.17022683165911</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-3.639249774740449</v>
+        <v>45.44900237873418</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>5.038558747852122</v>
+        <v>52.99860902094561</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>9.030417385146968</v>
+        <v>58.28032273708158</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>-6.703955980627846</v>
+        <v>21.74432417397388</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>6.764023100415592</v>
+        <v>44.78245563845256</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>12.00923632683001</v>
+        <v>51.90815525693512</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>-11.80665046563043</v>
+        <v>13.37805181615598</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-3.985881034196083</v>
+        <v>40.40227626710266</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>-0.8580335436140416</v>
+        <v>48.15005261828671</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-13.59434152095672</v>
+        <v>11.85123871498122</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-5.027482675341503</v>
+        <v>35.63773557593981</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-1.629917175365023</v>
+        <v>43.56855217534643</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-8.251292812436724</v>
+        <v>27.24695886474901</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1.170114385065411</v>
+        <v>46.52672549237991</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>1.665451347359841</v>
+        <v>52.69537578719424</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-3.276195349236836</v>
+        <v>48.76215131827283</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>5.293710749569456</v>
+        <v>59.12080946694733</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>9.241614450083965</v>
+        <v>65.81692447602205</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-6.289155624410505</v>
+        <v>24.22714644369781</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>7.005147958995906</v>
+        <v>51.94874616394422</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>12.19471086234784</v>
+        <v>60.54924831442919</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-3.647700707815609</v>
+        <v>18.31906424652454</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>4.202402479491916</v>
+        <v>47.27831847259939</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>7.335285110858941</v>
+        <v>56.48952537881534</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-5.048888783875782</v>
+        <v>16.91024643589965</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>3.550628801531929</v>
+        <v>42.92734468592243</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>6.955046639273014</v>
+        <v>52.30655234746334</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>0.542883573380351</v>
+        <v>35.10607643417415</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>7.653168636220656</v>
+        <v>56.35432788744485</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>10.49391485575001</v>
+        <v>63.76689815219626</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>5.450857189756121</v>
+        <v>62.32281633864193</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>14.06716540774796</v>
+        <v>73.69562689012974</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>18.03009230664426</v>
+        <v>80.94871766231137</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>2.297182378530962</v>
+        <v>34.77204678784106</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>15.63115389891083</v>
+        <v>65.08122978028928</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>20.8321118345301</v>
+        <v>75.36606030455485</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-19.95621718414166</v>
+        <v>-4.91940613822457</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>-12.25165192511337</v>
+        <v>15.546503332177</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>-9.17022285922851</v>
+        <v>21.43526590786319</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-21.97332637609463</v>
+        <v>-4.392828813035301</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-13.53053844945241</v>
+        <v>12.49888118572441</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-10.1833274643211</v>
+        <v>18.67590845006736</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-16.89887939187286</v>
+        <v>6.652451321026582</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-9.921243077000945</v>
+        <v>20.17752804286978</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-7.129485825467789</v>
+        <v>24.89349138484803</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-11.80315065814758</v>
+        <v>21.81893106010114</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-3.363472643713088</v>
+        <v>27.97386446426388</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>0.5323347574854083</v>
+        <v>33.28499943547602</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-14.62731817991322</v>
+        <v>1.089288180934094</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-1.521354926077983</v>
+        <v>20.50542184787971</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>3.596373026417808</v>
+        <v>27.36145597324688</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-19.34587931989126</v>
+        <v>-3.225232414454233</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>-11.73953358088033</v>
+        <v>20.2269614887667</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-8.691492403791962</v>
+        <v>28.23176333858938</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-21.42148219214577</v>
+        <v>-7.328998864203655</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-13.08588171706889</v>
+        <v>12.88617088964165</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-9.775080628185187</v>
+        <v>21.11051871840474</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-16.42399797033652</v>
+        <v>6.25228378471628</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-9.53458240325147</v>
+        <v>22.43683813830097</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-6.773230794832635</v>
+        <v>28.86075219727165</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-11.40400176710289</v>
+        <v>25.09574179529987</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-3.069377549790886</v>
+        <v>33.88505850513479</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>0.7828947569540858</v>
+        <v>40.83006164711771</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>-14.17821659243055</v>
+        <v>3.444495512568192</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-1.240918416778058</v>
+        <v>27.21426639411455</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>3.821846477377839</v>
+        <v>36.07123996493256</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-10.86190051993571</v>
+        <v>3.290396677210296</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-3.227384533833934</v>
+        <v>28.78859391416609</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-0.1697074239176146</v>
+        <v>38.25042064503396</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-12.53255422998527</v>
+        <v>-0.732631149278923</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-4.16540468111743</v>
+        <v>21.83116675704882</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-0.8428650148336203</v>
+        <v>31.49618528133454</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>-7.276461490669256</v>
+        <v>15.62808649985598</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-0.3589053412987937</v>
+        <v>33.88482532743028</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>2.411819460222333</v>
+        <v>41.54631168086067</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-2.329321698725607</v>
+        <v>39.99994133640337</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>6.051148236980211</v>
+        <v>49.88788332860915</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>9.923962898548297</v>
+        <v>57.45853077055757</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>-5.251236596732461</v>
+        <v>15.34640426801304</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>7.723446408962452</v>
+        <v>41.80873885996506</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>12.8048362848557</v>
+        <v>52.36321893917115</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>2.602887044829565</v>
+        <v>1.348920747723135</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>10.36642609558218</v>
+        <v>23.61799261994668</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>13.45097966780732</v>
+        <v>29.0930904217359</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>1.328017525334417</v>
+        <v>3.299556245554822</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>9.836723694106432</v>
+        <v>21.99251380106408</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>13.18751150528855</v>
+        <v>27.68767987423914</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>6.949794835732433</v>
+        <v>14.9927604765054</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>13.9811694960186</v>
+        <v>30.05798832912373</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>16.77584820848654</v>
+        <v>34.36429570844113</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>11.49169751927948</v>
+        <v>31.03865675664962</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>19.98946318949528</v>
+        <v>37.96653787784911</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>23.89219740310109</v>
+        <v>42.98417216161496</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>7.932610534036108</v>
+        <v>8.576324740983617</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>21.14433068848546</v>
+        <v>29.98974560504146</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>26.26667996156324</v>
+        <v>36.26997578438252</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>2.992489673083348</v>
+        <v>7.208233927860107</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>10.65677055554867</v>
+        <v>32.73445577852554</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>13.70786650793073</v>
+        <v>40.04384374617127</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>1.651221389076888</v>
+        <v>4.604238136710652</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>10.05156620653283</v>
+        <v>26.89764230249091</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>13.36587409422238</v>
+        <v>34.33301642455015</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>7.190528792203963</v>
+        <v>19.07282284447758</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>14.13273809187686</v>
+        <v>37.0368438852985</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>16.89695516281045</v>
+        <v>42.78096858587914</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>11.66183794190229</v>
+        <v>39.15879243821005</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>20.0535012020942</v>
+        <v>48.8596528201486</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>23.91250172269076</v>
+        <v>55.34935059709983</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>8.159723340469263</v>
+        <v>15.7127341860996</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>21.20084953660964</v>
+        <v>41.80247157030705</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>26.26812754362347</v>
+        <v>49.73723793402756</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>11.06491165339641</v>
+        <v>13.41596139713421</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>18.76061762596203</v>
+        <v>40.9831499240873</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>21.82157008043908</v>
+        <v>49.80539085340411</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>10.11782216300575</v>
+        <v>10.69875721832795</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>18.55331097272802</v>
+        <v>35.33746703017789</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>21.87959959806448</v>
+        <v>44.27067112815345</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>15.90911504026879</v>
+        <v>28.04488699067896</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>22.8824102815105</v>
+        <v>48.08130764410171</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>25.65618250073124</v>
+        <v>55.10890803976106</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>20.32152225636014</v>
+        <v>53.79890064445585</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>28.76327218711586</v>
+        <v>64.61209247123914</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>32.6429180515871</v>
+        <v>71.69123437872355</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>16.68597245712123</v>
+        <v>27.3188451559867</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>29.77011158746225</v>
+        <v>56.11812085723477</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>34.85657326747722</v>
+        <v>65.80382560663254</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>21.59285244237716</v>
+        <v>-3.642130245333576</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.26453575424561</v>
+        <v>17.44093063848591</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>32.31423435348245</v>
+        <v>22.89366218335542</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>21.02483244622744</v>
+        <v>-2.566874079560851</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.43292160671898</v>
+        <v>14.84690172458284</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>32.74481403286632</v>
+        <v>20.51661019405233</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>26.99263313756975</v>
+        <v>8.666991836713963</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>33.94051579266072</v>
+        <v>22.64436018352674</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>36.70288036301801</v>
+        <v>26.92503670459271</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>31.04717731121985</v>
+        <v>23.8975104243981</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>39.43475236652875</v>
+        <v>30.29020413344683</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>43.29465946771816</v>
+        <v>35.25833379129743</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.98689233943314</v>
+        <v>2.739415692595344</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>40.04600318123158</v>
+        <v>22.73686885706658</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>45.10672238724786</v>
+        <v>29.02488735227153</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>21.73871695832594</v>
+        <v>-3.227059713688881</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.31180352354389</v>
+        <v>20.96463781152925</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>32.32832470086203</v>
+        <v>28.34986622934213</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>21.09772214904469</v>
+        <v>-6.964032700085038</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>29.39817962587678</v>
+        <v>13.90726891238117</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>32.67390237696083</v>
+        <v>21.42546277932337</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>26.97816489788001</v>
+        <v>6.816400622056896</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>33.83747804940369</v>
+        <v>23.56375885806387</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>36.56963571509161</v>
+        <v>29.38085883976013</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>30.96861428382739</v>
+        <v>25.90560429111311</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>39.25097657515851</v>
+        <v>35.02134913677871</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>43.06749998877036</v>
+        <v>41.49242489514131</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>26.972075820177</v>
+        <v>3.85048180492366</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>39.86174874024073</v>
+        <v>28.35492752463506</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>44.86788680327464</v>
+        <v>36.41034969583158</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.39981338911775</v>
+        <v>5.099520897722503</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>37.00570358431013</v>
+        <v>31.46934923575175</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>40.03158366328971</v>
+        <v>40.29448250042301</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.13022673574446</v>
+        <v>1.407310654067668</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>37.46735736054833</v>
+        <v>24.76334674002301</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>40.75446860028825</v>
+        <v>33.71050503175888</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>35.25462335108527</v>
+        <v>18.12233483118261</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>42.14627648361017</v>
+        <v>37.06284832048469</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>44.88752517515201</v>
+        <v>44.10366722783724</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>39.19397518821724</v>
+        <v>42.7745681493903</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>47.52742505848352</v>
+        <v>53.03344575916844</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>51.36413209498163</v>
+        <v>60.07253514407141</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>35.07293873807863</v>
+        <v>17.5389979270444</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>48.00796429185416</v>
+        <v>44.90469752783097</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>53.03240093978034</v>
+        <v>54.62889249272767</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>1.735571960562574</v>
+        <v>-10.89497473654033</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>9.220414680876772</v>
+        <v>8.966767982357162</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>12.2097729273223</v>
+        <v>14.0273811747424</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>0.3059768783231149</v>
+        <v>-10.45051165745677</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>8.510290339771906</v>
+        <v>5.833895542044505</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>11.75671043240803</v>
+        <v>11.06030759962851</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>5.673775831807603</v>
+        <v>-0.1176070728062726</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>12.45283160511893</v>
+        <v>12.90003881955541</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>15.16020166248826</v>
+        <v>16.82226300804021</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>10.10997891688283</v>
+        <v>14.05639111579296</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>18.29013591596791</v>
+        <v>20.02810255725296</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>22.07633052344154</v>
+        <v>24.77527169915889</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>6.735858579326631</v>
+        <v>-5.807721109152844</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>19.47967408898454</v>
+        <v>12.91703511948302</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>24.44163316923486</v>
+        <v>18.67906214512715</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>2.092969478416492</v>
+        <v>-8.838505815272441</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.481772653225057</v>
+        <v>14.04618888251821</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>12.43860124988228</v>
+        <v>21.005281132609</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>0.6001723046509824</v>
+        <v>-12.88393549394641</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>8.699623295678393</v>
+        <v>6.751715357669326</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>11.91057342088266</v>
+        <v>13.80949161559601</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>5.887258494098106</v>
+        <v>-0.04025661275846204</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>12.58003545038994</v>
+        <v>15.66327060525601</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>15.25778982039988</v>
+        <v>21.10461243586034</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>10.25556858536236</v>
+        <v>17.92601795976289</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>18.33322755578929</v>
+        <v>26.54735506895106</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>22.07682948636545</v>
+        <v>32.76484299902994</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>6.93728867371302</v>
+        <v>-2.852738962750863</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>19.51601669352412</v>
+        <v>20.24434193800014</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>24.42441929528619</v>
+        <v>27.76279556936901</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>10.20938894724373</v>
+        <v>-0.02139107676702068</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>17.63138803442437</v>
+        <v>24.98980506290265</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>20.59811070222792</v>
+        <v>33.38013116197941</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>9.109740449095277</v>
+        <v>-4.109300623766096</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>17.2463244007828</v>
+        <v>17.95216034680837</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>20.46926233057233</v>
+        <v>26.42986915229382</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>14.65085337905329</v>
+        <v>11.64040177599163</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>21.37630619483513</v>
+        <v>29.48518093027953</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>24.06366520115706</v>
+        <v>36.14241765021836</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>18.95636772041007</v>
+        <v>34.97206989579367</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>27.08583310032189</v>
+        <v>44.72503103100307</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>30.849913227234</v>
+        <v>51.50367702122119</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>15.49858151667534</v>
+        <v>11.09245336283744</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.12339709585132</v>
+        <v>36.98177147237448</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>33.05102796138448</v>
+        <v>46.15996844974279</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-13.90600380455175</v>
+        <v>1.509515298005724</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-6.12558978446063</v>
+        <v>23.45966329384072</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>-2.911328830590193</v>
+        <v>29.97301035644139</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-15.84795639447379</v>
+        <v>2.711759102540643</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-7.329396456970677</v>
+        <v>20.80666142260251</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-3.83676785568413</v>
+        <v>27.63727582235762</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-10.46151483841216</v>
+        <v>14.63497714419246</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-3.421133345351564</v>
+        <v>29.13367368412068</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-0.5057702774616288</v>
+        <v>34.40193762966555</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-5.36486951082059</v>
+        <v>30.26771035959523</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>3.159413900476103</v>
+        <v>36.81074495136816</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>7.213189886059936</v>
+        <v>42.8330717470934</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>-8.289715434007825</v>
+        <v>8.66307669451788</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>4.931712076610999</v>
+        <v>29.35076246255475</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>10.26972555882017</v>
+        <v>37.01797061940579</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-13.27968807070288</v>
+        <v>2.974218820705453</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-5.598546094486856</v>
+        <v>27.99008916138873</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-2.417726704438017</v>
+        <v>36.5671154449149</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-15.27889121563003</v>
+        <v>-0.8152339846423331</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-6.868496433493299</v>
+        <v>20.70811834065442</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-3.412374353589769</v>
+        <v>29.48641943492652</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-9.97008309125534</v>
+        <v>13.62789467016157</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-3.018712552025832</v>
+        <v>30.85158994974605</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-0.1338691499744442</v>
+        <v>37.7474723892436</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-4.951437645889271</v>
+        <v>33.17021551890052</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>3.46699155192119</v>
+        <v>42.50898224659174</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>7.47778027942752</v>
+        <v>50.17495779853174</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>-7.827296090909989</v>
+        <v>10.58888298892414</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>5.223630194380164</v>
+        <v>35.78040624297093</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>10.50667246238546</v>
+        <v>45.3334802045501</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-5.156004295316393</v>
+        <v>8.611596937547386</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>2.560644972081064</v>
+        <v>35.54070975952605</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>5.743319756585876</v>
+        <v>45.68047915304215</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-6.768438616292407</v>
+        <v>5.061033383472676</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>1.681186015346199</v>
+        <v>28.80246766163634</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>5.141084976325992</v>
+        <v>39.11589987881885</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>-1.212640256558018</v>
+        <v>22.36996479873545</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>5.773377077744847</v>
+        <v>41.54981384954466</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>8.66074392445411</v>
+        <v>49.76685097914626</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>3.737314878989203</v>
+        <v>47.76994133322152</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>12.2094206647348</v>
+        <v>58.13978541204411</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>16.23036429723881</v>
+        <v>66.44171462760181</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>0.7154216189364249</v>
+        <v>22.0721823080244</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>13.81628796096834</v>
+        <v>49.81141329117777</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>19.10600113371017</v>
+        <v>61.17503981185007</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>18.75125182493613</v>
+        <v>5.678619171826192</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>26.47350903564661</v>
+        <v>27.38641250429024</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.5312959596925</v>
+        <v>33.15829047206702</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>18.18597665584826</v>
+        <v>7.410387863017476</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>26.64954798620249</v>
+        <v>25.5795037298087</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.97127427908562</v>
+        <v>31.60021697642087</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>24.12376006715797</v>
+        <v>19.08888128509498</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>31.11819589478202</v>
+        <v>33.70535854113123</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>33.88836432588977</v>
+        <v>38.29320190750317</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.26324633988482</v>
+        <v>34.96897070930042</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>36.7185223137254</v>
+        <v>41.65330325443232</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>40.58604101759253</v>
+        <v>46.840560304756</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>24.24424251801981</v>
+        <v>12.99452221959571</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>37.38482653116515</v>
+        <v>33.84797734177165</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>42.46386699428768</v>
+        <v>40.51400109355167</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>18.95037894211741</v>
+        <v>5.940937951721644</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>26.57377684146955</v>
+        <v>30.7243103320088</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.5983042283072</v>
+        <v>38.47152360158553</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>18.31138320431113</v>
+        <v>2.938197451008087</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>26.66703086317434</v>
+        <v>24.5196556469581</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.95249440793106</v>
+        <v>32.43691715498802</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>24.16283756021015</v>
+        <v>17.14537016393742</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>31.06845360803032</v>
+        <v>34.49945121749661</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>33.80834424860618</v>
+        <v>40.66173958559514</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.2366780819916</v>
+        <v>36.88422055146479</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>36.58619841757645</v>
+        <v>46.25186058960402</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>40.41023089243514</v>
+        <v>52.98819845761371</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>24.28013749273299</v>
+        <v>14.03686264807178</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>37.25088354247785</v>
+        <v>39.35399264956163</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>42.27516685663556</v>
+        <v>47.84791009918546</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>26.56300101892813</v>
+        <v>11.75785577576334</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>34.21602807174898</v>
+        <v>38.59820948601656</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>37.25121692465966</v>
+        <v>47.82961061426312</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>26.2967620618821</v>
+        <v>8.75302778684439</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>34.68559908291945</v>
+        <v>32.69774045886404</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>37.98383821163461</v>
+        <v>42.08361328264014</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>32.38937314725966</v>
+        <v>25.75951791232225</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>39.3244434051185</v>
+        <v>45.20055839008177</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>42.07459030645722</v>
+        <v>52.62237698649763</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.41386702630454</v>
+        <v>51.10429050645853</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>44.81115267886659</v>
+        <v>61.59546664894293</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>48.65701118757406</v>
+        <v>68.93536698855686</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>32.33758591729952</v>
+        <v>25.24968112657304</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>45.34834054438817</v>
+        <v>53.28435081286175</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>50.39288023903517</v>
+        <v>63.49956043431792</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>46.65616548862488</v>
+        <v>9.203086886334441</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>54.60462862011428</v>
+        <v>32.62775736794185</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>57.84748347298931</v>
+        <v>39.32131069896954</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>47.07669929276685</v>
+        <v>11.81090892448793</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>55.78038623792873</v>
+        <v>31.44003482702644</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>59.30460824038024</v>
+        <v>38.47136852083399</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>53.949095722079</v>
+        <v>24.38051218754046</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>61.14221530058849</v>
+        <v>40.20499715456421</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>64.08351151201612</v>
+        <v>45.64859853798936</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>57.62673944056216</v>
+        <v>41.18651472788933</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>66.33552721588111</v>
+        <v>48.38245051102315</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>70.42444339645189</v>
+        <v>54.48977915552246</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>52.74033300801092</v>
+        <v>18.12696241990586</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>66.25131743654435</v>
+        <v>40.52802855521142</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>71.63842881170041</v>
+        <v>48.42958395706388</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>46.64911717352213</v>
+        <v>11.42692867933228</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>54.49560544244461</v>
+        <v>38.00626597085449</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>57.70449507209131</v>
+        <v>46.6655620909513</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>46.98692419172556</v>
+        <v>9.009378703497122</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>55.57946197584539</v>
+        <v>32.1628443166187</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>59.06661889691645</v>
+        <v>41.02585392988169</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>53.76565011670654</v>
+        <v>24.16428302359956</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>60.8673038779716</v>
+        <v>42.79795570361268</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>63.77762037025097</v>
+        <v>49.76848063408742</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>57.37973439671617</v>
+        <v>45.02147426041542</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>65.97969312690741</v>
+        <v>55.06206179410304</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>70.02483550630444</v>
+        <v>62.77185988793102</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>52.56304576797052</v>
+        <v>20.99929255376738</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>65.89882885426911</v>
+        <v>48.01936383388598</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>71.23009832872469</v>
+        <v>57.67828917338755</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>53.39218906350798</v>
+        <v>15.57620537366798</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>61.27597921170084</v>
+        <v>43.97983963368367</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>64.4886709329089</v>
+        <v>54.22101808877999</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>54.06382125612834</v>
+        <v>13.37251975653045</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>62.69760615807483</v>
+        <v>38.65237772359237</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>66.1905453333413</v>
+        <v>49.06898334090118</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>61.06164533786179</v>
+        <v>31.34379420818061</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>68.19961419209336</v>
+        <v>51.85374288321059</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>71.11414255138436</v>
+        <v>60.16174979619475</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>64.64493462684548</v>
+        <v>58.136006853568</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>73.30100940892996</v>
+        <v>69.17002732475009</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>77.35896545624308</v>
+        <v>77.50566229195118</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>59.7281293996876</v>
+        <v>31.07612590401467</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>73.11691190277944</v>
+        <v>60.54768728096249</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>78.45794900290072</v>
+        <v>72.03321391553088</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>143.4722915312874</v>
+        <v>7.1291809172636</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>152.1853202353595</v>
+        <v>28.91657807507961</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>155.7293217011713</v>
+        <v>35.39710026307282</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>147.586228910644</v>
+        <v>9.291794751578168</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>157.1292194080294</v>
+        <v>27.34020500158034</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>160.9804956038899</v>
+        <v>34.12719462160822</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>157.3337386293354</v>
+        <v>20.89676297119053</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>165.2184741432892</v>
+        <v>35.38092117195066</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>168.4318052185838</v>
+        <v>40.64121837069127</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>158.9514145215488</v>
+        <v>36.10696358808923</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>168.4834590889599</v>
+        <v>42.62695183151929</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>172.9532666000266</v>
+        <v>48.62427920630084</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>150.5265896331439</v>
+        <v>14.68417160224381</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>165.3523178224135</v>
+        <v>35.28402116312778</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>171.2406158927652</v>
+        <v>42.91798293207707</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>142.4053495956626</v>
+        <v>10.42437875292563</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>151.0053219050294</v>
+        <v>35.20962658385383</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>154.5117844791717</v>
+        <v>43.64970925552128</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>146.3900697579187</v>
+        <v>7.882821199671646</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>155.809774903559</v>
+        <v>29.28131908297295</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>159.6200929548883</v>
+        <v>37.90392773625368</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>156.0099314265721</v>
+        <v>21.94741797416812</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>163.7932358470289</v>
+        <v>39.09417597147817</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>166.972347053585</v>
+        <v>45.88721850618052</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>157.5836308645695</v>
+        <v>41.02341503259832</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>166.9950285612262</v>
+        <v>50.26744253091734</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>171.4163173642527</v>
+        <v>57.85024673893459</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>149.2684598056086</v>
+        <v>18.60929561793234</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>163.8997884805353</v>
+        <v>43.60987359787906</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>169.7263124245547</v>
+        <v>53.01461538997443</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>147.664776353532</v>
+        <v>14.57934271430665</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>156.3133033032956</v>
+        <v>41.12006610857085</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>159.8272675214645</v>
+        <v>51.10031099103026</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>151.9330346235372</v>
+        <v>12.21108326909697</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>161.4064568763089</v>
+        <v>35.65955979864971</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>165.2266565282318</v>
+        <v>45.79074745552975</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>161.7536219018886</v>
+        <v>29.0145187363503</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>169.5837841081279</v>
+        <v>47.96907517000118</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>172.7705073310112</v>
+        <v>56.06097852960134</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>163.3522898240758</v>
+        <v>53.8085890935541</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>172.8347673438554</v>
+        <v>64.02029953344109</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>177.2742779635807</v>
+        <v>72.22204933341862</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>154.9948086718078</v>
+        <v>28.4423206025831</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>169.6969254892408</v>
+        <v>55.79923993859973</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>175.5397180151826</v>
+        <v>66.98561869384255</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>43.32302518727582</v>
+        <v>3.622342324842325</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>51.34258785245651</v>
+        <v>26.62155932862641</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>54.55235830441539</v>
+        <v>32.93911477636483</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>43.69250264229341</v>
+        <v>5.349848637882875</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>52.47945044063152</v>
+        <v>24.64796897971573</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>55.96698983128032</v>
+        <v>31.28129227258499</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>50.49452354945156</v>
+        <v>17.74995992510468</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>57.7560340822743</v>
+        <v>33.28940215334008</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>60.66510146917912</v>
+        <v>38.37405744065322</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>54.20109407938684</v>
+        <v>34.62141790703444</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>62.98559728706951</v>
+        <v>41.66040890254646</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>67.04087781829078</v>
+        <v>47.35133582959682</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>49.26180165504542</v>
+        <v>11.39455706156481</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>62.90441884457942</v>
+        <v>33.49947527996051</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>68.2374978044013</v>
+        <v>40.86638850008638</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>43.29528652455829</v>
+        <v>5.065770318651573</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>51.21200352376234</v>
+        <v>31.24271815956161</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>54.38737516690977</v>
+        <v>39.57664751215822</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>43.57958436269698</v>
+        <v>1.776490498610045</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>52.25431213207937</v>
+        <v>24.60566842553785</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>55.70433433370681</v>
+        <v>33.15359284528408</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>50.28649864138943</v>
+        <v>16.83758470594399</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>57.45565977694221</v>
+        <v>35.20515141529551</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>60.33339402252525</v>
+        <v>41.8800017479292</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>53.9301745952802</v>
+        <v>37.68381689676278</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>62.60469958830285</v>
+        <v>47.50000073887649</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>66.61521712151644</v>
+        <v>54.81049501431838</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>49.06273902061548</v>
+        <v>13.54018861156455</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>62.52864369367442</v>
+        <v>40.26626874142657</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>67.8050993666957</v>
+        <v>49.47740586929827</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>50.43598055456881</v>
+        <v>9.991942987683352</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>58.38685824272718</v>
+        <v>38.16606299537414</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>61.57121078435223</v>
+        <v>48.08507248109102</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>51.07559269374893</v>
+        <v>6.75914588061179</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>59.78837307290772</v>
+        <v>31.89679255309379</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>63.24954271648504</v>
+        <v>42.0095200252895</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>58.01488438377763</v>
+        <v>24.66748345167076</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>65.21765706459995</v>
+        <v>45.07452666458305</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>68.10420554606364</v>
+        <v>53.0934308782106</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>61.62463262268215</v>
+        <v>51.42901108228619</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>70.35246426000722</v>
+        <v>62.35264693226186</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>74.38269821668786</v>
+        <v>70.31448078537571</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>56.65335201395897</v>
+        <v>24.23485818499002</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>70.16662359485294</v>
+        <v>53.61946739986008</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>75.46091560818957</v>
+        <v>64.66817223316687</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>18.04730318518877</v>
+        <v>-1.226119128715464</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>25.69335974532721</v>
+        <v>19.6077196140829</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>28.8499733528942</v>
+        <v>25.87196780594625</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>17.27528736814901</v>
+        <v>-0.3092512812439629</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>25.6480144546062</v>
+        <v>16.84373329339064</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.07730742553369</v>
+        <v>23.40242110722247</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>23.25247727041924</v>
+        <v>10.98438780410547</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>30.17175242723594</v>
+        <v>24.72636785767285</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>33.03412934765007</v>
+        <v>29.77956431946686</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>27.4896342047557</v>
+        <v>25.88680582818056</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>35.86235816716493</v>
+        <v>32.1574097147781</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>39.84232195786397</v>
+        <v>37.82828528118337</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>23.64954100784244</v>
+        <v>5.072646134881804</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>36.64784887602548</v>
+        <v>24.68612609847609</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>41.88855715972461</v>
+        <v>32.05529435559934</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>18.32558625203129</v>
+        <v>1.455745485792406</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.87363984125484</v>
+        <v>25.28353708655868</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.99749887026304</v>
+        <v>33.63088905113582</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>17.48537224344305</v>
+        <v>-2.349679656843101</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>25.75127696901644</v>
+        <v>18.15252167649501</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.14483264884434</v>
+        <v>26.69413687710135</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>23.37857026023828</v>
+        <v>11.41912309995031</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>30.20994496337858</v>
+        <v>27.82701546562156</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>33.04244780120606</v>
+        <v>34.54068608989992</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>27.54763759531995</v>
+        <v>30.04341237943833</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>35.81582397321796</v>
+        <v>39.00181038735829</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>39.75364000776423</v>
+        <v>46.29100774240741</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>23.76637691868847</v>
+        <v>8.208449358357219</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>36.59629453918757</v>
+        <v>32.20589876928791</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>41.78318562627527</v>
+        <v>41.51480219606624</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>25.67713022849146</v>
+        <v>6.663211486458444</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>33.2623151541121</v>
+        <v>32.35696228547813</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>36.38878750901255</v>
+        <v>42.20904655314176</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>25.19536652707313</v>
+        <v>3.045043683763993</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>33.50242199760338</v>
+        <v>25.70424313921336</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>36.90045680790631</v>
+        <v>35.73022597352089</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>31.31842686221047</v>
+        <v>19.52473253734327</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>38.18597858405565</v>
+        <v>37.83690061906766</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>41.02163811510906</v>
+        <v>45.82693818758599</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>35.43680376706885</v>
+        <v>43.71247671345709</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>43.76045707499614</v>
+        <v>53.67915316090582</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>47.70931954660451</v>
+        <v>61.59726697230124</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>31.53191570038819</v>
+        <v>18.90677208067792</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>44.41489934676981</v>
+        <v>45.38480172111203</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>49.60945939912867</v>
+        <v>56.44454138961162</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>143.8511722643833</v>
+        <v>4.56690493446478</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>152.5494421945081</v>
+        <v>26.00528153701513</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>156.0889433789231</v>
+        <v>32.50694474519069</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>147.9866808899731</v>
+        <v>6.376942963841692</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>157.5133164722099</v>
+        <v>24.07624560065603</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>161.359698308466</v>
+        <v>30.88834172081283</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>157.7312687827014</v>
+        <v>17.83311996584968</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>165.6025234852701</v>
+        <v>32.01824571033318</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>168.8117875276288</v>
+        <v>37.30059668380591</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>159.3373609311824</v>
+        <v>32.9010154792653</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>168.8534092022531</v>
+        <v>39.28773248326841</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>173.3173478542464</v>
+        <v>45.30997797227718</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>150.9136896578381</v>
+        <v>11.86827878942167</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>165.7139243167813</v>
+        <v>32.08107385952101</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>171.5948470014715</v>
+        <v>39.74718195476567</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>142.7780701753336</v>
+        <v>7.198627084264604</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>151.3634711225985</v>
+        <v>31.59771357630466</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>154.8654949802887</v>
+        <v>40.1078377153131</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>146.7842847025088</v>
+        <v>4.300025897402055</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>156.1878446135188</v>
+        <v>25.31135392331382</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>159.9933348441381</v>
+        <v>34.01340135300238</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>156.4012228613091</v>
+        <v>18.17331311382052</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>164.1712177183504</v>
+        <v>34.98849238567668</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>167.3463168226967</v>
+        <v>41.85138360425947</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>157.963559128404</v>
+        <v>37.05847327586577</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>167.3591689327887</v>
+        <v>46.15247579157641</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>171.7746802312973</v>
+        <v>53.78713817524205</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>149.6495923734959</v>
+        <v>15.03542369766498</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>164.2557587541208</v>
+        <v>39.60271445007749</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>170.0750102759706</v>
+        <v>49.10158382294451</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>148.0064342309591</v>
+        <v>11.56989151792448</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>156.6401384413378</v>
+        <v>37.73255173747805</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>160.1495927172201</v>
+        <v>47.77223564911738</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>152.2940239493743</v>
+        <v>8.880262031781907</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>161.7510177285581</v>
+        <v>31.94830891580601</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>165.566312018155</v>
+        <v>42.14909107034882</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>162.1107753624705</v>
+        <v>25.48295889586073</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>169.9273930436222</v>
+        <v>44.11170870557681</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>173.1100417819155</v>
+        <v>52.2652047051795</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>163.6983195435751</v>
+        <v>50.05715713382891</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>173.1646313695963</v>
+        <v>60.11444803654889</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>177.5982787113143</v>
+        <v>68.37263831728055</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>155.3426202642592</v>
+        <v>25.07352688838142</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>170.0191618217496</v>
+        <v>52.00208883079105</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>175.8545378800305</v>
+        <v>63.27248523856267</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>19.44364106811798</v>
+        <v>9.673988073718949</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>27.24308480172819</v>
+        <v>32.02903244196114</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>30.42760199627902</v>
+        <v>38.29970300796151</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>18.79947566579964</v>
+        <v>12.33086571191386</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>27.34036692549997</v>
+        <v>30.94210634486927</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>30.79983235151571</v>
+        <v>37.53434988198936</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>24.90386241172884</v>
+        <v>24.39760077909315</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>31.96215515826424</v>
+        <v>39.41155316076592</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>34.84968969989009</v>
+        <v>44.48257628828883</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>29.16102448631275</v>
+        <v>40.22426678239616</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>37.69838268023743</v>
+        <v>46.99007946683023</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>41.71456454186946</v>
+        <v>52.55665810275296</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>25.18695933910843</v>
+        <v>17.92957054988481</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>38.44896712964159</v>
+        <v>39.18263569739851</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>43.73334531161674</v>
+        <v>46.61318378027958</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>19.69369763312894</v>
+        <v>11.57767847883266</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>27.39331091170477</v>
+        <v>37.01427505431285</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>30.54401564522662</v>
+        <v>45.1362620067936</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>18.97876067079549</v>
+        <v>9.273001873160693</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>27.41083103598217</v>
+        <v>31.33431145565474</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>30.83340291421061</v>
+        <v>39.64205620238764</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>24.99711070168668</v>
+        <v>23.92051834795222</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>31.96585359283541</v>
+        <v>41.68427977017423</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>34.82254717273614</v>
+        <v>48.18623137088152</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>29.18606130499818</v>
+        <v>43.58572238997006</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>37.61699743048088</v>
+        <v>53.07653571556085</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>41.58960936228143</v>
+        <v>60.13937115595537</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>25.27307409719933</v>
+        <v>20.38628271781747</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>38.36357208908422</v>
+        <v>46.14653297481559</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>43.59239017833166</v>
+        <v>55.20048463947391</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>27.09351512365184</v>
+        <v>16.11107524400633</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>34.82839361420932</v>
+        <v>43.46212580701721</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>37.98295356836624</v>
+        <v>53.05724349014224</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>26.73569179325552</v>
+        <v>13.89431916009791</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>35.20684121312757</v>
+        <v>38.17240339827982</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>38.63520609214025</v>
+        <v>47.92859736281523</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>32.98722105048299</v>
+        <v>31.32560777469363</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>39.99046678906485</v>
+        <v>51.04304249674998</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>42.85139987376463</v>
+        <v>58.79014449712973</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>37.12660249707763</v>
+        <v>56.6676571790203</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>45.61093250331859</v>
+        <v>67.18768788206742</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>49.59657950079256</v>
+        <v>74.83481958529775</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>33.09118405541231</v>
+        <v>30.44454496771191</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>46.2310633756569</v>
+        <v>58.75999617503046</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>51.4697926214463</v>
+        <v>69.51458070382476</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>32.70951195196127</v>
+        <v>4.238869260272001</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>40.68310198110004</v>
+        <v>27.34461570572921</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>43.8954079869436</v>
+        <v>33.72832898138525</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>32.69281633448381</v>
+        <v>6.142019971383281</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>41.4277644424037</v>
+        <v>25.55136293642504</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>44.91823987686701</v>
+        <v>32.25618441702138</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>39.22790064572088</v>
+        <v>18.54651610435674</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>46.44675513378923</v>
+        <v>34.18451533185416</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>49.35863825060513</v>
+        <v>39.33499609203594</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>43.19760889048133</v>
+        <v>35.48831441562427</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>51.9341483555494</v>
+        <v>42.58120993454109</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>55.99000890262813</v>
+        <v>48.31856845020999</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>38.63777469287944</v>
+        <v>12.20736778249879</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>52.19789614681275</v>
+        <v>34.43518645659682</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>57.53537970242125</v>
+        <v>41.88796183379796</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>32.8101453988118</v>
+        <v>5.73983592918799</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>40.68171283904224</v>
+        <v>31.99863993525226</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>43.85966773647419</v>
+        <v>40.40298199728096</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>32.71324421419947</v>
+        <v>2.619658110701739</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>41.33690630367558</v>
+        <v>25.53530429810913</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>44.78991448503471</v>
+        <v>34.15628063783591</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>39.15675572170053</v>
+        <v>17.66720958636406</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>46.28402862570528</v>
+        <v>36.11098798098907</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>49.16461397124429</v>
+        <v>42.85444603647592</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>43.06059457912344</v>
+        <v>38.56626706225444</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>51.68808425331135</v>
+        <v>48.42913930864356</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>55.69938059657004</v>
+        <v>55.78581246396893</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>38.56807396687535</v>
+        <v>14.37210846292316</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>51.95292162714786</v>
+        <v>41.19288230385821</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>57.23387906073539</v>
+        <v>50.49026406239073</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>40.06882370945416</v>
+        <v>9.970889959148131</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>47.97358935918034</v>
+        <v>38.16242766836677</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>51.15972042716717</v>
+        <v>48.16968080241123</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>40.32930860118466</v>
+        <v>6.885543383313141</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>48.98991134296317</v>
+        <v>32.04097628014512</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>52.45324519840105</v>
+        <v>42.24649431395351</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>47.00566049031753</v>
+        <v>24.74826395897063</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>54.16562442525314</v>
+        <v>45.17104799814116</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>57.05431759082641</v>
+        <v>53.27570568178205</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>50.86987737638544</v>
+        <v>51.54415336558739</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>59.54930831773185</v>
+        <v>62.48667274785284</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>63.57913773539268</v>
+        <v>70.50553470395033</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>46.26783334135884</v>
+        <v>24.33765078992617</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>59.69856647131271</v>
+        <v>53.73795246784415</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>64.99606559243529</v>
+        <v>64.89592626740603</v>
       </c>
     </row>
   </sheetData>
